--- a/dataset/fake-ad.xlsx
+++ b/dataset/fake-ad.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -488,9 +488,42 @@
         <v>用户见证,夸大失实</v>
       </c>
     </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>金坷垃</v>
+      </c>
+      <c r="B7" t="str" xml:space="preserve">
+        <v xml:space="preserve">【所有人】：金坷垃。  
+【日本】：我们要金坷垃。  
+【非洲】：我们要金坷垃。  
+【美国】：你们想干什么？  
+【日本】：我要金坷垃！  
+【非洲】：非洲农业不发达，必须要有金坷垃。  
+【日本】：日本资源太缺乏，必须要有金坷垃。  
+【美国】：金坷垃的金坷垃。  
+【美国】：他是我的。  
+【美国】：不能打架，不能打架。  
+【美国】：金坷垃好处都有啥？谁说对了，就给他肥料啦。  
+【非洲】：不蒸发，零浪费。  
+【非洲】：肥料捞了金坷垃，能吸收两米下的氮磷钾。  
+【非洲】：直接肥料都涨价。  
+【非洲】：肥料捞了金坷垃，一袋能顶两袋。  
+【日本】：用了金坷垃，小麦亩产1800。  
+【日本】：日本的粮食再也不向美国进口啦！  
+【美国】：小鬼子真不傻，金坷垃给了他，对美国农业危害大，绝不能给他。  
+【美国】：非洲农业不发达，我们都要支援他。  
+【所有人】：金坷垃！  
+【美国】：你们日本别想啦。  
+【日本】：没有金坷垃怎么种庄稼？  
+【旁白】：美国圣地亚戈！（品牌名）</v>
+      </c>
+      <c r="C7" t="str">
+        <v>数据造假,夸大失实</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
   </ignoredErrors>
 </worksheet>
 </file>